--- a/Data/aearep-25/candidatepackages.xlsx
+++ b/Data/aearep-25/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,27 +25,27 @@
     <t>missing</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>mlt</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
+    <t>median</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>median</t>
+    <t>subset</t>
   </si>
   <si>
     <t>cal</t>
   </si>
   <si>
-    <t>subset</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -58,9 +58,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-25</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-25/Kaur - replication files</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>REPLICATION.do</t>
@@ -145,7 +139,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -157,7 +151,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -169,10 +163,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="C4">
-        <v>0.14588859677314758</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D4"/>
     </row>
@@ -181,10 +175,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C5">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D5"/>
     </row>
@@ -193,10 +187,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6">
-        <v>0.18766577541828156</v>
+        <v>0.18677686154842377</v>
       </c>
       <c r="D6"/>
     </row>
@@ -205,10 +199,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>985</v>
+        <v>955</v>
       </c>
       <c r="C7">
-        <v>0.32659152150154114</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D7"/>
     </row>
@@ -217,10 +211,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1133</v>
+        <v>998</v>
       </c>
       <c r="C8">
-        <v>0.37566313147544861</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D8"/>
     </row>
@@ -229,10 +223,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="C9">
-        <v>0.65086209774017334</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D9"/>
     </row>
@@ -241,10 +235,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2511</v>
+        <v>2259</v>
       </c>
       <c r="C10">
-        <v>0.83255970478057861</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D10"/>
     </row>
@@ -254,7 +248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -262,7 +256,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -270,7 +264,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -278,23 +272,15 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
